--- a/PENINAH WANJIRU.xlsx
+++ b/PENINAH WANJIRU.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="480" windowWidth="12255" windowHeight="5730" firstSheet="82" activeTab="86"/>
+    <workbookView xWindow="360" yWindow="480" windowWidth="12255" windowHeight="5730" firstSheet="80" activeTab="86"/>
   </bookViews>
   <sheets>
     <sheet name="JUL" sheetId="20" r:id="rId1"/>
@@ -100,12 +95,13 @@
     <sheet name="NOVEMBER 21" sheetId="103" r:id="rId86"/>
     <sheet name="DECEMBER 21" sheetId="104" r:id="rId87"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4497" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4499" uniqueCount="347">
   <si>
     <t>NAME</t>
   </si>
@@ -1199,11 +1195,14 @@
   <si>
     <t>PAID ON 1/12</t>
   </si>
+  <si>
+    <t>PAID ON 13/12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2377,7 +2376,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2412,7 +2411,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -62244,8 +62243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63162,10 +63161,10 @@
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63567,7 +63566,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="69"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="69"/>
       <c r="B17" s="194">
         <v>11</v>
@@ -63597,7 +63596,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="69"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="69"/>
       <c r="B18" s="194">
         <v>12</v>
@@ -63621,7 +63620,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="69"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="69"/>
       <c r="B19" s="246"/>
       <c r="C19" s="257" t="s">
@@ -63654,7 +63653,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="69"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="69"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -63667,7 +63666,7 @@
       <c r="J20" s="225"/>
       <c r="K20" s="69"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -63680,7 +63679,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="69"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="69"/>
       <c r="B22" s="226" t="s">
         <v>204</v>
@@ -63695,7 +63694,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="69"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="69"/>
       <c r="B23" s="79" t="s">
         <v>205</v>
@@ -63712,7 +63711,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="69"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="69"/>
       <c r="B24" s="233" t="s">
         <v>206</v>
@@ -63741,7 +63740,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="69"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="69"/>
       <c r="B25" s="190" t="s">
         <v>241</v>
@@ -63764,7 +63763,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="69"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="69"/>
       <c r="B26" s="190" t="s">
         <v>61</v>
@@ -63787,7 +63786,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="69"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="69"/>
       <c r="B27" s="190" t="s">
         <v>31</v>
@@ -63802,7 +63801,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="69"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="69"/>
       <c r="B28" s="190" t="s">
         <v>282</v>
@@ -63829,7 +63828,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="69"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="69"/>
       <c r="B29" s="249" t="s">
         <v>211</v>
@@ -63848,7 +63847,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="69"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="69"/>
       <c r="B30" s="183" t="s">
         <v>215</v>
@@ -63870,8 +63869,12 @@
       <c r="I30" s="190"/>
       <c r="J30" s="1"/>
       <c r="K30" s="69"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="175">
+        <f>F19</f>
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="69"/>
       <c r="B31" s="236" t="s">
         <v>121</v>
@@ -63891,8 +63894,12 @@
       <c r="I31" s="190"/>
       <c r="J31" s="1"/>
       <c r="K31" s="69"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="261">
+        <f>D28</f>
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="69"/>
       <c r="B32" s="236" t="s">
         <v>333</v>
@@ -63912,8 +63919,12 @@
       <c r="I32" s="190"/>
       <c r="J32" s="1"/>
       <c r="K32" s="69"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="261">
+        <f>L30-L31</f>
+        <v>43650</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="69"/>
       <c r="B33" s="237" t="s">
         <v>334</v>
@@ -63933,8 +63944,12 @@
       <c r="I33" s="190"/>
       <c r="J33" s="1"/>
       <c r="K33" s="69"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="175">
+        <f>D30</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="69"/>
       <c r="B34" s="238"/>
       <c r="C34" s="235"/>
@@ -63946,8 +63961,12 @@
       <c r="I34" s="190"/>
       <c r="J34" s="1"/>
       <c r="K34" s="69"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="261">
+        <f>L32-L33</f>
+        <v>39650</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="69"/>
       <c r="B35" s="237"/>
       <c r="C35" s="190"/>
@@ -63959,8 +63978,11 @@
       <c r="I35" s="190"/>
       <c r="J35" s="1"/>
       <c r="K35" s="69"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="69"/>
       <c r="B36" s="249" t="s">
         <v>119</v>
@@ -63994,8 +64016,12 @@
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="69"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="261">
+        <f>L34-L35</f>
+        <v>34653</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="69"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -64007,8 +64033,12 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="69"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <f>D31</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="69"/>
       <c r="B38" s="214" t="s">
         <v>15</v>
@@ -64026,8 +64056,12 @@
       <c r="I38" s="69"/>
       <c r="J38" s="69"/>
       <c r="K38" s="69"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="261">
+        <f>L36-L37</f>
+        <v>19653</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="69"/>
       <c r="B39" s="69"/>
       <c r="C39" s="69"/>
@@ -64039,8 +64073,12 @@
       <c r="I39" s="69"/>
       <c r="J39" s="69"/>
       <c r="K39" s="69"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <f>4500</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="69"/>
       <c r="B40" s="69"/>
       <c r="C40" s="69"/>
@@ -64052,8 +64090,12 @@
       <c r="I40" s="69"/>
       <c r="J40" s="69"/>
       <c r="K40" s="69"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="261">
+        <f>L38-L39</f>
+        <v>15153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="69"/>
       <c r="B41" s="69"/>
       <c r="C41" s="69"/>
@@ -64065,6 +64107,20 @@
       <c r="I41" s="69"/>
       <c r="J41" s="69"/>
       <c r="K41" s="69"/>
+      <c r="L41">
+        <f>15000</f>
+        <v>15000</v>
+      </c>
+      <c r="N41" s="261">
+        <f>4500-L42</f>
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L42" s="261">
+        <f>L40-L41</f>
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -64075,8 +64131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64698,7 +64754,10 @@
       <c r="H26" s="190"/>
       <c r="I26" s="190"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="69"/>
+      <c r="K26" s="175">
+        <f>F19</f>
+        <v>48500</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="69"/>
@@ -64713,7 +64772,10 @@
       <c r="H27" s="190"/>
       <c r="I27" s="190"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="69"/>
+      <c r="K27" s="261">
+        <f>D28</f>
+        <v>4850</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="69"/>
@@ -64740,7 +64802,10 @@
       </c>
       <c r="I28" s="190"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="69"/>
+      <c r="K28" s="261">
+        <f>K26-K27</f>
+        <v>43650</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="69"/>
@@ -64759,7 +64824,10 @@
       <c r="H29" s="190"/>
       <c r="I29" s="190"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="69"/>
+      <c r="K29" s="175">
+        <f>D30</f>
+        <v>4000</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="69"/>
@@ -64782,7 +64850,10 @@
       </c>
       <c r="I30" s="190"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="69"/>
+      <c r="K30" s="261">
+        <f>K28-K29</f>
+        <v>39650</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="69"/>
@@ -64803,7 +64874,10 @@
       </c>
       <c r="I31" s="190"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="69"/>
+      <c r="K31" s="69">
+        <f>D31</f>
+        <v>15000</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="69"/>
@@ -64824,7 +64898,10 @@
       </c>
       <c r="I32" s="190"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="69"/>
+      <c r="K32" s="261">
+        <f>K30-K31</f>
+        <v>24650</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="69"/>
@@ -64845,7 +64922,9 @@
       </c>
       <c r="I33" s="190"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="69"/>
+      <c r="K33" s="69">
+        <v>4347</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="69"/>
@@ -64866,7 +64945,10 @@
       </c>
       <c r="I34" s="190"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="69"/>
+      <c r="K34" s="261">
+        <f>K32-K33</f>
+        <v>20303</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="69"/>
@@ -64879,7 +64961,10 @@
       <c r="H35" s="195"/>
       <c r="I35" s="190"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="69"/>
+      <c r="K35" s="69">
+        <f>D32</f>
+        <v>10087</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="69"/>
@@ -64914,7 +64999,10 @@
         <v>-10946</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="K36" s="69"/>
+      <c r="K36" s="261">
+        <f>K34-K35</f>
+        <v>10216</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="69"/>
@@ -64927,7 +65015,10 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="69"/>
+      <c r="K37" s="69">
+        <f>D33</f>
+        <v>10087</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="69"/>
@@ -64946,7 +65037,10 @@
       </c>
       <c r="I38" s="69"/>
       <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
+      <c r="K38" s="261">
+        <f>K36-K37</f>
+        <v>129</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="69"/>
@@ -64959,7 +65053,10 @@
       <c r="H39" s="69"/>
       <c r="I39" s="69"/>
       <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
+      <c r="K39" s="69">
+        <f>D34</f>
+        <v>6075</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="69"/>
@@ -64972,7 +65069,10 @@
       <c r="H40" s="69"/>
       <c r="I40" s="69"/>
       <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
+      <c r="K40" s="261">
+        <f>K38-K39</f>
+        <v>-5946</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="69"/>
@@ -64994,10 +65094,10 @@
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65371,7 +65471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="69"/>
       <c r="B17" s="194">
         <v>11</v>
@@ -65399,7 +65499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="69"/>
       <c r="B18" s="194">
         <v>12</v>
@@ -65421,7 +65521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="69"/>
       <c r="B19" s="246"/>
       <c r="C19" s="257" t="s">
@@ -65452,7 +65552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="69"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -65463,7 +65563,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -65474,7 +65574,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="69"/>
       <c r="B22" s="226" t="s">
         <v>204</v>
@@ -65487,7 +65587,7 @@
       <c r="H22" s="231"/>
       <c r="I22" s="230"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="69"/>
       <c r="B23" s="79" t="s">
         <v>205</v>
@@ -65502,7 +65602,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="69"/>
       <c r="B24" s="233" t="s">
         <v>206</v>
@@ -65529,7 +65629,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="69"/>
       <c r="B25" s="190" t="s">
         <v>255</v>
@@ -65550,7 +65650,7 @@
       <c r="H25" s="190"/>
       <c r="I25" s="190"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="69"/>
       <c r="B26" s="190" t="s">
         <v>61</v>
@@ -65571,7 +65671,7 @@
       <c r="H26" s="190"/>
       <c r="I26" s="190"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="69"/>
       <c r="B27" s="190" t="s">
         <v>31</v>
@@ -65584,7 +65684,7 @@
       <c r="H27" s="190"/>
       <c r="I27" s="190"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="69"/>
       <c r="B28" s="190" t="s">
         <v>282</v>
@@ -65608,8 +65708,12 @@
         <v>5350</v>
       </c>
       <c r="I28" s="190"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L28" s="175">
+        <f>F19</f>
+        <v>53500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="69"/>
       <c r="B29" s="249" t="s">
         <v>211</v>
@@ -65625,8 +65729,12 @@
       <c r="G29" s="234"/>
       <c r="H29" s="190"/>
       <c r="I29" s="190"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L29" s="261">
+        <f>D28</f>
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="69"/>
       <c r="B30" s="183" t="s">
         <v>215</v>
@@ -65646,8 +65754,12 @@
         <v>4000</v>
       </c>
       <c r="I30" s="190"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L30" s="261">
+        <f>L28-L29</f>
+        <v>48150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="69"/>
       <c r="B31" s="236" t="s">
         <v>121</v>
@@ -65665,8 +65777,11 @@
         <v>15000</v>
       </c>
       <c r="I31" s="190"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>5946</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="69"/>
       <c r="B32" s="236" t="s">
         <v>299</v>
@@ -65684,8 +65799,12 @@
         <v>20102</v>
       </c>
       <c r="I32" s="190"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L32" s="261">
+        <f>L30-L31</f>
+        <v>42204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="69"/>
       <c r="B33" s="237" t="s">
         <v>342</v>
@@ -65703,8 +65822,12 @@
         <v>12097</v>
       </c>
       <c r="I33" s="190"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L33" s="175">
+        <f>D30</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="69"/>
       <c r="B34" s="238"/>
       <c r="C34" s="235"/>
@@ -65714,8 +65837,12 @@
       <c r="G34" s="235"/>
       <c r="H34" s="190"/>
       <c r="I34" s="190"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L34" s="261">
+        <f>L32-L33</f>
+        <v>38204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="69"/>
       <c r="B35" s="237"/>
       <c r="C35" s="190"/>
@@ -65725,8 +65852,12 @@
       <c r="G35" s="190"/>
       <c r="H35" s="195"/>
       <c r="I35" s="190"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <f>D31</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="69"/>
       <c r="B36" s="249" t="s">
         <v>119</v>
@@ -65758,8 +65889,12 @@
         <f>G36-H36</f>
         <v>-8995</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L36" s="261">
+        <f>L34-L35</f>
+        <v>23204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="69"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -65769,8 +65904,12 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <f>D32</f>
+        <v>20102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="69"/>
       <c r="B38" s="214" t="s">
         <v>15</v>
@@ -65786,6 +65925,22 @@
         <v>12</v>
       </c>
       <c r="I38" s="69"/>
+      <c r="L38" s="261">
+        <f>L36-L37</f>
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <f>D33</f>
+        <v>12097</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="261">
+        <f>L38-L39</f>
+        <v>-8995</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -65796,8 +65951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66137,7 +66292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="194">
         <v>11</v>
       </c>
@@ -66164,7 +66319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="194">
         <v>12</v>
       </c>
@@ -66185,7 +66340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="246"/>
       <c r="C19" s="257" t="s">
         <v>119</v>
@@ -66215,7 +66370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -66225,7 +66380,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -66235,7 +66390,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="226" t="s">
         <v>204</v>
       </c>
@@ -66247,7 +66402,7 @@
       <c r="H22" s="231"/>
       <c r="I22" s="230"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="79" t="s">
         <v>205</v>
       </c>
@@ -66261,7 +66416,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="233" t="s">
         <v>206</v>
       </c>
@@ -66286,8 +66441,12 @@
       <c r="I24" s="233" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M24" s="175">
+        <f>F19</f>
+        <v>53500</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="190" t="s">
         <v>209</v>
       </c>
@@ -66306,8 +66465,12 @@
       </c>
       <c r="H25" s="190"/>
       <c r="I25" s="190"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M25" s="261">
+        <f>D28</f>
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="190" t="s">
         <v>61</v>
       </c>
@@ -66326,8 +66489,12 @@
       </c>
       <c r="H26" s="190"/>
       <c r="I26" s="190"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M26" s="175">
+        <f>M24-M25</f>
+        <v>48150</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="190" t="s">
         <v>31</v>
       </c>
@@ -66338,8 +66505,12 @@
       <c r="G27" s="234"/>
       <c r="H27" s="190"/>
       <c r="I27" s="190"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <f>8995</f>
+        <v>8995</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="190" t="s">
         <v>282</v>
       </c>
@@ -66362,8 +66533,12 @@
         <v>5350</v>
       </c>
       <c r="I28" s="190"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M28" s="175">
+        <f>M26-M27</f>
+        <v>39155</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="249" t="s">
         <v>211</v>
       </c>
@@ -66378,8 +66553,12 @@
       <c r="G29" s="234"/>
       <c r="H29" s="190"/>
       <c r="I29" s="190"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M29" s="175">
+        <f>D30</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="183" t="s">
         <v>215</v>
       </c>
@@ -66398,8 +66577,12 @@
         <v>4000</v>
       </c>
       <c r="I30" s="190"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M30" s="175">
+        <f>M28-M29</f>
+        <v>35155</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="236" t="s">
         <v>121</v>
       </c>
@@ -66416,8 +66599,12 @@
         <v>15000</v>
       </c>
       <c r="I31" s="190"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <f>D31</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="236" t="s">
         <v>343</v>
       </c>
@@ -66434,6 +66621,10 @@
         <v>21754</v>
       </c>
       <c r="I32" s="190"/>
+      <c r="M32" s="175">
+        <f>M30-M31</f>
+        <v>20155</v>
+      </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="237"/>
@@ -66444,6 +66635,10 @@
       <c r="G33" s="190"/>
       <c r="H33" s="190"/>
       <c r="I33" s="190"/>
+      <c r="M33">
+        <f>D32</f>
+        <v>21754</v>
+      </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="238"/>
@@ -66454,6 +66649,10 @@
       <c r="G34" s="235"/>
       <c r="H34" s="190"/>
       <c r="I34" s="190"/>
+      <c r="M34" s="175">
+        <f>M32-M33</f>
+        <v>-1599</v>
+      </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="237"/>
@@ -66496,14 +66695,6 @@
         <f>G36-H36</f>
         <v>-1599</v>
       </c>
-      <c r="L36">
-        <f>20000+600+200+1500+4000</f>
-        <v>26300</v>
-      </c>
-      <c r="M36">
-        <f>10000+300+600+200+1050+4000</f>
-        <v>16150</v>
-      </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
@@ -66514,14 +66705,6 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="L37">
-        <f>L36-22300</f>
-        <v>4000</v>
-      </c>
-      <c r="M37">
-        <f>M36-7000-3800</f>
-        <v>5350</v>
-      </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="214" t="s">
@@ -66546,10 +66729,10 @@
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66686,10 +66869,12 @@
         <f>D7+F7+E7</f>
         <v>5000</v>
       </c>
-      <c r="H7" s="222"/>
+      <c r="H7" s="222">
+        <v>5000</v>
+      </c>
       <c r="I7" s="190">
         <f>G7-H7</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="69"/>
       <c r="K7" s="69"/>
@@ -66746,10 +66931,12 @@
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="H9" s="222"/>
+      <c r="H9" s="222">
+        <v>6000</v>
+      </c>
       <c r="I9" s="190">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
@@ -66898,10 +67085,12 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="H14" s="222"/>
+      <c r="H14" s="222">
+        <v>3000</v>
+      </c>
       <c r="I14" s="190">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="69"/>
       <c r="K14" s="69"/>
@@ -66928,10 +67117,12 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="H15" s="222"/>
+      <c r="H15" s="222">
+        <v>4000</v>
+      </c>
       <c r="I15" s="190">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J15" s="69" t="s">
         <v>188</v>
@@ -66960,17 +67151,19 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="H16" s="222"/>
+      <c r="H16" s="222">
+        <v>3000</v>
+      </c>
       <c r="I16" s="190">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J16" s="69"/>
       <c r="K16" s="69"/>
       <c r="L16" s="69"/>
       <c r="M16" s="69"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="69"/>
       <c r="B17" s="194">
         <v>11</v>
@@ -66990,17 +67183,19 @@
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="H17" s="222"/>
+      <c r="H17" s="222">
+        <v>6000</v>
+      </c>
       <c r="I17" s="190">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="J17" s="69"/>
       <c r="K17" s="69"/>
       <c r="L17" s="69"/>
       <c r="M17" s="69"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="69"/>
       <c r="B18" s="194">
         <v>12</v>
@@ -67026,7 +67221,7 @@
       <c r="L18" s="69"/>
       <c r="M18" s="69"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="69"/>
       <c r="B19" s="246"/>
       <c r="C19" s="257" t="s">
@@ -67050,18 +67245,18 @@
       </c>
       <c r="H19" s="222">
         <f>SUM(H7:H18)</f>
-        <v>5000</v>
+        <v>32000</v>
       </c>
       <c r="I19" s="258">
         <f>G19-H19</f>
-        <v>48500</v>
+        <v>21500</v>
       </c>
       <c r="J19" s="69"/>
       <c r="K19" s="69"/>
       <c r="L19" s="69"/>
       <c r="M19" s="69"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="69"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -67076,7 +67271,7 @@
       <c r="L20" s="69"/>
       <c r="M20" s="69"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="69"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -67091,7 +67286,7 @@
       <c r="L21" s="69"/>
       <c r="M21" s="69"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="69"/>
       <c r="B22" s="226" t="s">
         <v>204</v>
@@ -67108,7 +67303,7 @@
       <c r="L22" s="69"/>
       <c r="M22" s="69"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="69"/>
       <c r="B23" s="79" t="s">
         <v>205</v>
@@ -67127,7 +67322,7 @@
       <c r="L23" s="69"/>
       <c r="M23" s="69"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="69"/>
       <c r="B24" s="233" t="s">
         <v>206</v>
@@ -67158,10 +67353,10 @@
       <c r="L24" s="69"/>
       <c r="M24" s="69"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="69"/>
       <c r="B25" s="190" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C25" s="234">
         <f>F19</f>
@@ -67170,11 +67365,11 @@
       <c r="D25" s="190"/>
       <c r="E25" s="190"/>
       <c r="F25" s="190" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G25" s="234">
         <f>H19</f>
-        <v>5000</v>
+        <v>32000</v>
       </c>
       <c r="H25" s="190"/>
       <c r="I25" s="190"/>
@@ -67183,7 +67378,7 @@
       <c r="L25" s="69"/>
       <c r="M25" s="69"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="69"/>
       <c r="B26" s="190" t="s">
         <v>61</v>
@@ -67207,8 +67402,12 @@
       <c r="K26" s="69"/>
       <c r="L26" s="69"/>
       <c r="M26" s="69"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O26" s="175">
+        <f>F19</f>
+        <v>53500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="69"/>
       <c r="B27" s="190" t="s">
         <v>31</v>
@@ -67224,8 +67423,12 @@
       <c r="K27" s="69"/>
       <c r="L27" s="69"/>
       <c r="M27" s="69"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O27" s="261">
+        <f>D28</f>
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="69"/>
       <c r="B28" s="190" t="s">
         <v>282</v>
@@ -67253,8 +67456,12 @@
       <c r="K28" s="69"/>
       <c r="L28" s="69"/>
       <c r="M28" s="69"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O28" s="261">
+        <f>O26-O27</f>
+        <v>48150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="69"/>
       <c r="B29" s="249" t="s">
         <v>211</v>
@@ -67274,8 +67481,11 @@
       <c r="K29" s="69"/>
       <c r="L29" s="69"/>
       <c r="M29" s="69"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="69"/>
       <c r="B30" s="183" t="s">
         <v>215</v>
@@ -67299,8 +67509,12 @@
       <c r="K30" s="69"/>
       <c r="L30" s="69"/>
       <c r="M30" s="69"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O30" s="261">
+        <f>O28-O29</f>
+        <v>46551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="69"/>
       <c r="B31" s="236" t="s">
         <v>121</v>
@@ -67322,8 +67536,12 @@
       <c r="K31" s="69"/>
       <c r="L31" s="69"/>
       <c r="M31" s="69"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O31" s="175">
+        <f>D30</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="69"/>
       <c r="B32" s="236" t="s">
         <v>345</v>
@@ -67345,23 +67563,39 @@
       <c r="K32" s="69"/>
       <c r="L32" s="69"/>
       <c r="M32" s="69"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O32" s="261">
+        <f>O30-O31</f>
+        <v>42551</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="69"/>
-      <c r="B33" s="237"/>
+      <c r="B33" s="237" t="s">
+        <v>346</v>
+      </c>
       <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
+      <c r="D33" s="190">
+        <v>17450</v>
+      </c>
       <c r="E33" s="190"/>
-      <c r="F33" s="237"/>
+      <c r="F33" s="237" t="s">
+        <v>346</v>
+      </c>
       <c r="G33" s="190"/>
-      <c r="H33" s="190"/>
+      <c r="H33" s="190">
+        <v>17450</v>
+      </c>
       <c r="I33" s="190"/>
       <c r="J33" s="69"/>
       <c r="K33" s="69"/>
       <c r="L33" s="69"/>
       <c r="M33" s="69"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <f>D31</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="69"/>
       <c r="B34" s="238"/>
       <c r="C34" s="235"/>
@@ -67375,8 +67609,12 @@
       <c r="K34" s="69"/>
       <c r="L34" s="69"/>
       <c r="M34" s="69"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O34" s="261">
+        <f>O32-O33</f>
+        <v>27551</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="69"/>
       <c r="B35" s="237"/>
       <c r="C35" s="190"/>
@@ -67390,8 +67628,12 @@
       <c r="K35" s="69"/>
       <c r="L35" s="69"/>
       <c r="M35" s="69"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <f>D32</f>
+        <v>10087</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="69"/>
       <c r="B36" s="249" t="s">
         <v>119</v>
@@ -67402,39 +67644,37 @@
       </c>
       <c r="D36" s="253">
         <f>SUM(D30:D35)</f>
-        <v>29087</v>
+        <v>46537</v>
       </c>
       <c r="E36" s="253">
         <f>C36-D36</f>
-        <v>17464</v>
+        <v>14</v>
       </c>
       <c r="F36" s="249" t="s">
         <v>119</v>
       </c>
       <c r="G36" s="253">
         <f>G25+G26-H28</f>
-        <v>-1949</v>
+        <v>25051</v>
       </c>
       <c r="H36" s="253">
         <f>SUM(H30:H35)</f>
-        <v>29087</v>
+        <v>46537</v>
       </c>
       <c r="I36" s="254">
         <f>G36-H36</f>
-        <v>-31036</v>
+        <v>-21486</v>
       </c>
       <c r="J36" s="69"/>
       <c r="K36" s="69"/>
-      <c r="L36" s="69">
-        <f>20000+600+200+1500+4000</f>
-        <v>26300</v>
-      </c>
-      <c r="M36" s="69">
-        <f>10000+300+600+200+1050+4000</f>
-        <v>16150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="O36" s="261">
+        <f>O34-O35</f>
+        <v>17464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="69"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -67446,16 +67686,14 @@
       <c r="I37" s="1"/>
       <c r="J37" s="69"/>
       <c r="K37" s="69"/>
-      <c r="L37" s="69">
-        <f>L36-22300</f>
-        <v>4000</v>
-      </c>
-      <c r="M37" s="69">
-        <f>M36-7000-3800</f>
-        <v>5350</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="O37">
+        <f>D33</f>
+        <v>17450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="69"/>
       <c r="B38" s="214" t="s">
         <v>15</v>
@@ -67475,8 +67713,12 @@
       <c r="K38" s="69"/>
       <c r="L38" s="69"/>
       <c r="M38" s="69"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O38" s="261">
+        <f>O36-O37</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="69"/>
       <c r="B39" s="69"/>
       <c r="C39" s="69"/>
@@ -67491,7 +67733,7 @@
       <c r="L39" s="69"/>
       <c r="M39" s="69"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="69"/>
       <c r="B40" s="69"/>
       <c r="C40" s="69"/>
@@ -67506,7 +67748,7 @@
       <c r="L40" s="69"/>
       <c r="M40" s="69"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="69"/>
       <c r="B41" s="69"/>
       <c r="C41" s="69"/>
@@ -67521,7 +67763,7 @@
       <c r="L41" s="69"/>
       <c r="M41" s="69"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="69"/>
       <c r="B42" s="69"/>
       <c r="C42" s="69"/>
@@ -67536,7 +67778,7 @@
       <c r="L42" s="69"/>
       <c r="M42" s="69"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="69"/>
       <c r="B43" s="69"/>
       <c r="C43" s="69"/>
